--- a/df_2/df_2_14.xlsx
+++ b/df_2/df_2_14.xlsx
@@ -668,392 +668,392 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.8511 %</t>
+          <t>0,8511</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.527 %</t>
+          <t>0,527</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.2427 %</t>
+          <t>1,2427</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.8542 %</t>
+          <t>0,8542</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.5147 %</t>
+          <t>0,5147</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5773 %</t>
+          <t>0,5773</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.8284 %</t>
+          <t>0,8284</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.8466 %</t>
+          <t>0,8466</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.4677 %</t>
+          <t>0,4677</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.4257 %</t>
+          <t>0,4257</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.3922 %</t>
+          <t>0,3922</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.6975 %</t>
+          <t>0,6975</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.3641 %</t>
+          <t>0,3641</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.5098 %</t>
+          <t>0,5098</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.0902 %</t>
+          <t>1,0902</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.052 %</t>
+          <t>1,052</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.8124 %</t>
+          <t>0,8124</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.8409 %</t>
+          <t>0,8409</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.6023 %</t>
+          <t>0,6023</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.9814 %</t>
+          <t>0,9814</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.8323 %</t>
+          <t>0,8323</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.5953 %</t>
+          <t>0,5953</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.445 %</t>
+          <t>0,445</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.4475 %</t>
+          <t>0,4475</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.8363 %</t>
+          <t>0,8363</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.4208 %</t>
+          <t>0,4208</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.7882 %</t>
+          <t>0,7882</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.6518 %</t>
+          <t>0,6518</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.8598 %</t>
+          <t>0,8598</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.6626 %</t>
+          <t>0,6626</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.4673 %</t>
+          <t>0,4673</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.5657 %</t>
+          <t>0,5657</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.5784 %</t>
+          <t>0,5784</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.4532 %</t>
+          <t>0,4532</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.3652 %</t>
+          <t>0,3652</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.5766 %</t>
+          <t>0,5766</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.5086 %</t>
+          <t>0,5086</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.3271 %</t>
+          <t>0,3271</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.526 %</t>
+          <t>0,526</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.2716 %</t>
+          <t>0,2716</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.2853 %</t>
+          <t>0,2853</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.4125 %</t>
+          <t>0,4125</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.509 %</t>
+          <t>0,509</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.5304 %</t>
+          <t>0,5304</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0.3117 %</t>
+          <t>0,3117</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>0.3139 %</t>
+          <t>0,3139</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.3062 %</t>
+          <t>0,3062</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>0.508 %</t>
+          <t>0,508</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>1.0193 %</t>
+          <t>1,0193</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>1.0626 %</t>
+          <t>1,0626</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>0.8327 %</t>
+          <t>0,8327</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>0.8956 %</t>
+          <t>0,8956</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>1.2123 %</t>
+          <t>1,2123</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>0.5094 %</t>
+          <t>0,5094</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>0.3862 %</t>
+          <t>0,3862</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>0.5501 %</t>
+          <t>0,5501</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>0.4801 %</t>
+          <t>0,4801</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>0.4146 %</t>
+          <t>0,4146</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>0.2914 %</t>
+          <t>0,2914</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>0.9564 %</t>
+          <t>0,9564</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>0.4299 %</t>
+          <t>0,4299</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>0.6233 %</t>
+          <t>0,6233</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>0.4903 %</t>
+          <t>0,4903</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>1.0291 %</t>
+          <t>1,0291</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>1.1016 %</t>
+          <t>1,1016</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>0.2781 %</t>
+          <t>0,2781</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>0.3615 %</t>
+          <t>0,3615</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>0.7804 %</t>
+          <t>0,7804</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>0.8074 %</t>
+          <t>0,8074</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>0.5196 %</t>
+          <t>0,5196</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>0.6717 %</t>
+          <t>0,6717</t>
         </is>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>0.7376 %</t>
+          <t>0,7376</t>
         </is>
       </c>
       <c r="BV2" t="inlineStr">
         <is>
-          <t>0.8779 %</t>
+          <t>0,8779</t>
         </is>
       </c>
       <c r="BW2" t="inlineStr">
         <is>
-          <t>0.8189 %</t>
+          <t>0,8189</t>
         </is>
       </c>
       <c r="BX2" t="inlineStr">
         <is>
-          <t>1.249 %</t>
+          <t>1,249</t>
         </is>
       </c>
       <c r="BY2" t="inlineStr">
         <is>
-          <t>0.763 %</t>
+          <t>0,763</t>
         </is>
       </c>
       <c r="BZ2" t="inlineStr">
         <is>
-          <t>0.514 %</t>
+          <t>0,514</t>
         </is>
       </c>
       <c r="CA2" t="inlineStr">
         <is>
-          <t>0.4364 %</t>
+          <t>0,4364</t>
         </is>
       </c>
     </row>
@@ -1065,197 +1065,197 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.3434 %</t>
+          <t>4,3434</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.2823 %</t>
+          <t>0,2823</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.707 %</t>
+          <t>0,707</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.5088 %</t>
+          <t>0,5088</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.5658 %</t>
+          <t>1,5658</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.7837 %</t>
+          <t>2,7837</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.7143 %</t>
+          <t>0,7143</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.2406 %</t>
+          <t>0,2406</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.7179 %</t>
+          <t>0,7179</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.7839 %</t>
+          <t>0,7839</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.534 %</t>
+          <t>0,534</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.2031 %</t>
+          <t>0,2031</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.2093 %</t>
+          <t>0,2093</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.5699 %</t>
+          <t>0,5699</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.9351 %</t>
+          <t>0,9351</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.1834 %</t>
+          <t>0,1834</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.4065 %</t>
+          <t>0,4065</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.6654 %</t>
+          <t>0,6654</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.8159 %</t>
+          <t>0,8159</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.2972 %</t>
+          <t>0,2972</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.5208 %</t>
+          <t>0,5208</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1.1742 %</t>
+          <t>1,1742</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.6344 %</t>
+          <t>0,6344</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.6142 %</t>
+          <t>0,6142</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.3916 %</t>
+          <t>0,3916</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.4464 %</t>
+          <t>0,4464</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.4161 %</t>
+          <t>0,4161</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>1.0863 %</t>
+          <t>1,0863</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.3279 %</t>
+          <t>0,3279</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.4768 %</t>
+          <t>0,4768</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.7902 %</t>
+          <t>0,7902</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.2504 %</t>
+          <t>0,2504</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.267 %</t>
+          <t>0,267</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.4107 %</t>
+          <t>0,4107</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.174 %</t>
+          <t>0,174</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.7308 %</t>
+          <t>0,7308</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.5083 %</t>
+          <t>0,5083</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.2769 %</t>
+          <t>0,2769</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1.0613 %</t>
+          <t>1,0613</t>
         </is>
       </c>
     </row>
@@ -1267,172 +1267,172 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.7061 %</t>
+          <t>0,7061</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.1787 %</t>
+          <t>0,1787</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.211 %</t>
+          <t>0,211</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.1675 %</t>
+          <t>0,1675</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.2035 %</t>
+          <t>0,2035</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2442 %</t>
+          <t>0,2442</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.3518 %</t>
+          <t>0,3518</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.4851 %</t>
+          <t>0,4851</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.5166 %</t>
+          <t>0,5166</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.7146 %</t>
+          <t>0,7146</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.9208 %</t>
+          <t>0,9208</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1.0345 %</t>
+          <t>1,0345</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1.1965 %</t>
+          <t>1,1965</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.2632 %</t>
+          <t>1,2632</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.0818 %</t>
+          <t>1,0818</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.6004 %</t>
+          <t>0,6004</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.4434 %</t>
+          <t>0,4434</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.3869 %</t>
+          <t>0,3869</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.3923 %</t>
+          <t>0,3923</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.4029 %</t>
+          <t>0,4029</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.4185 %</t>
+          <t>0,4185</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.4576 %</t>
+          <t>0,4576</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.4023 %</t>
+          <t>0,4023</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.4098 %</t>
+          <t>0,4098</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.5535 %</t>
+          <t>0,5535</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.5851 %</t>
+          <t>0,5851</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.5327 %</t>
+          <t>0,5327</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.5909 %</t>
+          <t>0,5909</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>1.2278 %</t>
+          <t>1,2278</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>1.2994 %</t>
+          <t>1,2994</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1.9246 %</t>
+          <t>1,9246</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>2.1847 %</t>
+          <t>2,1847</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.8916 %</t>
+          <t>0,8916</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.5999 %</t>
+          <t>0,5999</t>
         </is>
       </c>
     </row>
